--- a/TredjeNormalform_example.xlsx
+++ b/TredjeNormalform_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofie\Desktop\KEA\2. semester\Modulopgaver\Sails-and-Heroes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofie\Desktop\KEA\2. semester\Modulopgaver\Ships-and-Sails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26065DEF-EA49-4461-AE12-50377FDEAFB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D59BA4D-B6C7-47DC-B0DF-98EE77F9CC79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{54265E75-A912-4361-9A44-C1849DF95CFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t>currentlyLoadedWith</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>12x12</t>
+  </si>
+  <si>
+    <t>24x24</t>
+  </si>
+  <si>
+    <t>6x6</t>
+  </si>
+  <si>
+    <t>noOfShipsprPlayer</t>
   </si>
 </sst>
 </file>
@@ -585,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BC2375-BD12-4856-BC4F-DC25547A76BB}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1197,6 +1215,55 @@
         <v>63</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
